--- a/data/trans_camb/P50_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P50_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,28</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-5,68</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,18</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 4,91</t>
+          <t>-16,45; 12,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -0,94</t>
+          <t>-23,73; -0,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 5,66</t>
+          <t>-16,4; 14,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 1,97</t>
+          <t>-22,83; 0,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 3,1</t>
+          <t>-16,04; 1,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 2,29</t>
+          <t>-15,48; 3,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -0,24</t>
+          <t>-11,85; 5,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -1,49</t>
+          <t>-10,85; 7,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 0,4</t>
+          <t>-13,43; 3,22</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,82; -1,09</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 7,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 2,06</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,29%</t>
+          <t>-13,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,81%</t>
+          <t>-34,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>-28,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>-21,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,98%</t>
+          <t>-18,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,76%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>-17,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-25,7%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-16,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 17,08</t>
+          <t>-43,87; 51,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -3,33</t>
+          <t>-59,3; 1,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 21,09</t>
+          <t>-44,52; 66,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 7,81</t>
+          <t>-59,61; 4,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 11,14</t>
+          <t>-42,81; 8,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,34; 8,16</t>
+          <t>-40,99; 12,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,54; -0,2</t>
+          <t>-32,39; 20,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,19; -5,23</t>
+          <t>-30,03; 27,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 1,41</t>
+          <t>-37,36; 11,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-43,61; -3,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,52; 25,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,11; 7,4</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,76</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 6,28</t>
+          <t>-14,37; 6,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 6,77</t>
+          <t>-17,5; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 10,68</t>
+          <t>-14,46; 8,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 2,76</t>
+          <t>-8,04; 15,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 5,38</t>
+          <t>-13,48; 6,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 1,16</t>
+          <t>-12,04; 8,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 1,71</t>
+          <t>-15,98; 3,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 3,39</t>
+          <t>-1,0; 24,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 2,29</t>
+          <t>-11,07; 3,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; 2,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 4,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 16,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,31%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-13,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,47%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-20,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-15,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 27,22</t>
+          <t>-40,85; 33,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 27,38</t>
+          <t>-53,25; 17,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 43,56</t>
+          <t>-42,55; 37,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 8,82</t>
+          <t>-23,91; 67,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 16,76</t>
+          <t>-38,86; 26,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 3,6</t>
+          <t>-34,8; 32,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 5,31</t>
+          <t>-44,91; 14,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 11,33</t>
+          <t>-3,65; 97,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 7,59</t>
+          <t>-34,31; 14,78</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-38,11; 9,29</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-36,05; 15,12</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 65,35</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-18,06</t>
+          <t>-40,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-19,42</t>
+          <t>-40,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-12,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,4</t>
+          <t>-26,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>-18,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-29,8</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-21,48</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-10,67</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-14,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 0,67</t>
+          <t>-73,17; -14,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-43,64; -1,38</t>
+          <t>-70,2; -13,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 17,32</t>
+          <t>-49,99; 24,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 1,46</t>
+          <t>-60,6; 3,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 21,42</t>
+          <t>-39,65; 3,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 16,58</t>
+          <t>-24,42; 20,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -2,07</t>
+          <t>-33,09; 10,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 4,49</t>
+          <t>-26,8; 17,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 11,63</t>
+          <t>-50,5; -12,75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-43,07; -3,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-32,21; 14,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-38,01; 4,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-49,32%</t>
+          <t>-75,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-53,02%</t>
+          <t>-75,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,76%</t>
+          <t>-22,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-35,24%</t>
+          <t>-48,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>-48,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-42,41%</t>
+          <t>-24,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,73%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,32%</t>
+          <t>-64,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-46,31%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-23,01%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-32,22%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,09; 4,52</t>
+          <t>-95,46; -30,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,94; -0,03</t>
+          <t>-96,29; -23,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 77,76</t>
+          <t>-76,42; 88,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 5,13</t>
+          <t>-84,97; 16,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 73,49</t>
+          <t>-80,89; 19,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 58,04</t>
+          <t>-52,76; 82,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,92; -6,93</t>
+          <t>-65,61; 45,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 16,81</t>
+          <t>-55,88; 67,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 42,93</t>
+          <t>-84,77; -33,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-71,21; -6,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-59,89; 49,53</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-67,21; 12,69</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>-12,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-7,41</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-8,18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 0,23</t>
+          <t>-17,04; 1,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -2,6</t>
+          <t>-21,48; -4,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 2,86</t>
+          <t>-13,38; 7,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -1,0</t>
+          <t>-16,45; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,25</t>
+          <t>-14,01; -0,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -0,53</t>
+          <t>-10,54; 2,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -1,95</t>
+          <t>-11,25; 1,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -1,37</t>
+          <t>-4,11; 10,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,59</t>
+          <t>-12,94; -1,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; -3,49</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 1,48</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 4,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,79%</t>
+          <t>-12,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,25%</t>
+          <t>-18,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-21,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,63%</t>
+          <t>-12,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>-22,93%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-25,3%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-14,03%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-4,33%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 1,25</t>
+          <t>-44,81; 6,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,57; -9,31</t>
+          <t>-56,18; -16,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 10,38</t>
+          <t>-36,75; 26,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,41; -3,22</t>
+          <t>-42,07; 6,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 10,6</t>
+          <t>-38,69; -2,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -1,7</t>
+          <t>-29,88; 7,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,93; -6,28</t>
+          <t>-31,91; 5,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,52; -4,57</t>
+          <t>-11,72; 36,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -1,8</t>
+          <t>-36,02; -4,43</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-39,13; -11,65</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 5,26</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 13,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
